--- a/biology/Botanique/Martaoui/Martaoui.xlsx
+++ b/biology/Botanique/Martaoui/Martaoui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia simplex
 Le Martaoui, Acacia simplex, est une espèce de plantes à fleurs de la famille des Mimosacées selon la Classification classique ou des Fabacées selon la Classification phylogénétique. C'est un arbre originaire des îles du Pacifique.
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peuple les zones côtières (plages et arrières-plages) de nombreuses îles de l'Océan Pacifique. Il est notamment présent en Nouvelle-Calédonie (où on l'appelle le Martaoui), aux Fidji (Tatakia), aux Samoa (Tatagia) et aux Tonga (Tātāngia).
 </t>
@@ -543,7 +557,9 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est de taille moyenne. Il atteint 10 mètres.
 </t>
@@ -574,7 +590,9 @@
           <t>Feuilles, fleurs et fruits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles forment des phyllodes, en forme de cuillère. Les fleurs jaunes ressemblent à la plupart des espèces du genre Acacia. Les fruits sont des gousses brunes.
 </t>
